--- a/jqjson/HW/pin_summary_4FW_snapon_io.xlsx
+++ b/jqjson/HW/pin_summary_4FW_snapon_io.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA21B139-B360-469F-B265-B89492D5C808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19682FCE-FF8A-4330-8386-2CEA53241A3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16BI_RS485" sheetId="1" r:id="rId1"/>
     <sheet name="16BI_T1L" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="LED layout DV2&amp;Redesign board" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="235">
   <si>
     <t>BI1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -743,24 +743,533 @@
       </rPr>
       <t>0x401F83E4U</t>
     </r>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>DV2</t>
+  </si>
+  <si>
+    <t>OUT1</t>
+  </si>
+  <si>
+    <t>OUT2</t>
+  </si>
+  <si>
+    <t>OUT3</t>
+  </si>
+  <si>
+    <t>OUT4</t>
+  </si>
+  <si>
+    <t>OUT5</t>
+  </si>
+  <si>
+    <t>OUT6</t>
+  </si>
+  <si>
+    <t>OUT7</t>
+  </si>
+  <si>
+    <t>OUT8</t>
+  </si>
+  <si>
+    <t>OUT9</t>
+  </si>
+  <si>
+    <t>OUT10</t>
+  </si>
+  <si>
+    <t>OUT11</t>
+  </si>
+  <si>
+    <t>OUT12</t>
+  </si>
+  <si>
+    <t>OUT13</t>
+  </si>
+  <si>
+    <t>OUT14</t>
+  </si>
+  <si>
+    <t>OUT15</t>
+  </si>
+  <si>
+    <t>OUT16</t>
+  </si>
+  <si>
+    <t>OUT17</t>
+  </si>
+  <si>
+    <t>OUT18</t>
+  </si>
+  <si>
+    <t>OUT19</t>
+  </si>
+  <si>
+    <t>OUT20</t>
+  </si>
+  <si>
+    <t>OUT21</t>
+  </si>
+  <si>
+    <t>OUT22</t>
+  </si>
+  <si>
+    <t>OUT23</t>
+  </si>
+  <si>
+    <t>OUT24</t>
+  </si>
+  <si>
+    <t>OUT25</t>
+  </si>
+  <si>
+    <t>OUT26</t>
+  </si>
+  <si>
+    <t>OUT27</t>
+  </si>
+  <si>
+    <t>OUT28</t>
+  </si>
+  <si>
+    <t>OUT29</t>
+  </si>
+  <si>
+    <t>OUT30</t>
+  </si>
+  <si>
+    <t>OUT31</t>
+  </si>
+  <si>
+    <t>OUT32</t>
+  </si>
+  <si>
+    <t>OUT33</t>
+  </si>
+  <si>
+    <t>OUT34</t>
+  </si>
+  <si>
+    <t>OUT35</t>
+  </si>
+  <si>
+    <t>OUT36</t>
+  </si>
+  <si>
+    <t>not use</t>
+  </si>
+  <si>
+    <t>DL1</t>
+  </si>
+  <si>
+    <t>DL2</t>
+  </si>
+  <si>
+    <t>DL3</t>
+  </si>
+  <si>
+    <t>DL6</t>
+  </si>
+  <si>
+    <t>DL4</t>
+  </si>
+  <si>
+    <t>DL5</t>
+  </si>
+  <si>
+    <t>DL7</t>
+  </si>
+  <si>
+    <t>DL9</t>
+  </si>
+  <si>
+    <t>DL13</t>
+  </si>
+  <si>
+    <t>DL14</t>
+  </si>
+  <si>
+    <t>DL10</t>
+  </si>
+  <si>
+    <t>DL11</t>
+  </si>
+  <si>
+    <t>DL21</t>
+  </si>
+  <si>
+    <t>DL22</t>
+  </si>
+  <si>
+    <t>DL23</t>
+  </si>
+  <si>
+    <t>DL24</t>
+  </si>
+  <si>
+    <t>DL25</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>DL8</t>
+  </si>
+  <si>
+    <t>DL12</t>
+  </si>
+  <si>
+    <t>DL15</t>
+  </si>
+  <si>
+    <t>DL16</t>
+  </si>
+  <si>
+    <t>DL17</t>
+  </si>
+  <si>
+    <t>DL18</t>
+  </si>
+  <si>
+    <t>DL19</t>
+  </si>
+  <si>
+    <t>DL20</t>
+  </si>
+  <si>
+    <t>CH01</t>
+  </si>
+  <si>
+    <t>CH02</t>
+  </si>
+  <si>
+    <t>CH03</t>
+  </si>
+  <si>
+    <t>CH04</t>
+  </si>
+  <si>
+    <t>CH05</t>
+  </si>
+  <si>
+    <t>CH06</t>
+  </si>
+  <si>
+    <t>CH07</t>
+  </si>
+  <si>
+    <t>CH08</t>
+  </si>
+  <si>
+    <t>CH10</t>
+  </si>
+  <si>
+    <t>CH13</t>
+  </si>
+  <si>
+    <t>CH14</t>
+  </si>
+  <si>
+    <t>CH15</t>
+  </si>
+  <si>
+    <t>CH16</t>
+  </si>
+  <si>
+    <t>BLE_LED</t>
+  </si>
+  <si>
+    <t>CH12/BLE_LCD</t>
+  </si>
+  <si>
+    <t>SERVICE_LED</t>
+  </si>
+  <si>
+    <t>SERVICE_LCD</t>
+  </si>
+  <si>
+    <t>T1L_L_LED</t>
+  </si>
+  <si>
+    <t>CH11/T1L_L_LCD</t>
+  </si>
+  <si>
+    <t>RS485_LED/T1L_R_LED</t>
+  </si>
+  <si>
+    <t>CH09/RS485_LCD/T1L_R_LCD</t>
+  </si>
+  <si>
+    <t>non-HOA</t>
+  </si>
+  <si>
+    <t>HOA-LCD</t>
+  </si>
+  <si>
+    <t>RS485</t>
+  </si>
+  <si>
+    <t>T1L-without BLE</t>
+  </si>
+  <si>
+    <t>T1L-with BLE</t>
+  </si>
+  <si>
+    <t>16UIO/16BI LED</t>
+  </si>
+  <si>
+    <t>8DO LED</t>
+  </si>
+  <si>
+    <t>Driver 1</t>
+  </si>
+  <si>
+    <t>ISSI_OUT1</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>ISSI_OUT2</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>ISSI_OUT3</t>
+  </si>
+  <si>
+    <t>ISSI_OUT4</t>
+  </si>
+  <si>
+    <t>ISSI_OUT5</t>
+  </si>
+  <si>
+    <t>ISSI_OUT6</t>
+  </si>
+  <si>
+    <t>ISSI_OUT7</t>
+  </si>
+  <si>
+    <t>ISSI_OUT8</t>
+  </si>
+  <si>
+    <t>ISSI_OUT9</t>
+  </si>
+  <si>
+    <t>ISSI_OUT10</t>
+  </si>
+  <si>
+    <t>ISSI_OUT11</t>
+  </si>
+  <si>
+    <t>ISSI_OUT12</t>
+  </si>
+  <si>
+    <t>ISSI_OUT13</t>
+  </si>
+  <si>
+    <t>ISSI_OUT14</t>
+  </si>
+  <si>
+    <t>ISSI_OUT15</t>
+  </si>
+  <si>
+    <t>ISSI_OUT16</t>
+  </si>
+  <si>
+    <t>ISSI_OUT17</t>
+  </si>
+  <si>
+    <t>ISSI_OUT18</t>
+  </si>
+  <si>
+    <t>ISSI_OUT19</t>
+  </si>
+  <si>
+    <t>ISSI_OUT20</t>
+  </si>
+  <si>
+    <t>ISSI_OUT21</t>
+  </si>
+  <si>
+    <t>DL9/DL25</t>
+  </si>
+  <si>
+    <t>System LED
+(DL9)</t>
+  </si>
+  <si>
+    <t>BLE不点
+(DL9)</t>
+  </si>
+  <si>
+    <t>BLE
+(DL9)</t>
+  </si>
+  <si>
+    <t>System LED
+(DL25)</t>
+  </si>
+  <si>
+    <t>ISSI_OUT22</t>
+  </si>
+  <si>
+    <t>ISSI_OUT23</t>
+  </si>
+  <si>
+    <t>ISSI_OUT24</t>
+  </si>
+  <si>
+    <t>ISSI_OUT25</t>
+  </si>
+  <si>
+    <t>ISSI_OUT26</t>
+  </si>
+  <si>
+    <t>ISSI_OUT27</t>
+  </si>
+  <si>
+    <t>DL3/DL27</t>
+  </si>
+  <si>
+    <t>7
+(DL3)</t>
+  </si>
+  <si>
+    <t>BLE不点
+(DL27)</t>
+  </si>
+  <si>
+    <t>BLE
+(DL27)</t>
+  </si>
+  <si>
+    <t>ISSI_OUT28</t>
+  </si>
+  <si>
+    <t>ISSI_OUT29</t>
+  </si>
+  <si>
+    <t>DL7/DL28</t>
+  </si>
+  <si>
+    <t>14
+(DL7)</t>
+  </si>
+  <si>
+    <t>T1L_L
+(DL28)</t>
+  </si>
+  <si>
+    <t>ISSI_OUT30</t>
+  </si>
+  <si>
+    <t>ISSI_OUT31</t>
+  </si>
+  <si>
+    <t>DL10/DL26</t>
+  </si>
+  <si>
+    <t>RS485
+(DL10)</t>
+  </si>
+  <si>
+    <t>T1L_L
+(DL10)</t>
+  </si>
+  <si>
+    <t>RS485
+(DL26)</t>
+  </si>
+  <si>
+    <t>T1L_R
+(DL_26)</t>
+  </si>
+  <si>
+    <t>ISSI_OUT32</t>
+  </si>
+  <si>
+    <t>ISSI_OUT33</t>
+  </si>
+  <si>
+    <t>DL6/DL11</t>
+  </si>
+  <si>
+    <t>15
+(DL6)</t>
+  </si>
+  <si>
+    <t>SystemLED
+(DL11)</t>
+  </si>
+  <si>
+    <t>ISSI_OUT34</t>
+  </si>
+  <si>
+    <t>ISSI_OUT35</t>
+  </si>
+  <si>
+    <t>DL5/DL12</t>
+  </si>
+  <si>
+    <t>16
+(DL5)</t>
+  </si>
+  <si>
+    <t>T1L_R
+(DL12)</t>
+  </si>
+  <si>
+    <t>ISSI_OUT36</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>BT_CFG_2（PWM）</t>
+  </si>
+  <si>
+    <t>non-HOA(DL21-DL24)
+HOA(DL29-DL32)</t>
+  </si>
+  <si>
+    <t>Main LED
+(DL21-DL24)</t>
+  </si>
+  <si>
+    <t>Main LED
+(DL29-DL32)</t>
+  </si>
+  <si>
+    <t>BT_CFG_3（PWM）</t>
+  </si>
+  <si>
+    <t>Driver 2</t>
+  </si>
+  <si>
+    <t>redesign board DV1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -780,7 +1289,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -800,10 +1309,91 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -814,7 +1404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,9 +1417,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -844,8 +1469,123 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>123</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1736B23-34E4-4B78-AF5A-2279005848A4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>752475</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>31</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9F32A7-A07D-4701-A950-07B874DDEE10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1171,14 +1911,14 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="70.375" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="70.42578125" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1195,7 +1935,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1212,7 +1952,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -1229,7 +1969,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -1246,7 +1986,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1263,7 +2003,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -1277,7 +2017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1291,7 +2031,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -1305,7 +2045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1319,7 +2059,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1333,7 +2073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -1347,7 +2087,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -1361,7 +2101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" s="2" customFormat="1">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -1375,7 +2115,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1389,7 +2129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" s="2" customFormat="1">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -1403,7 +2143,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -1428,23 +2168,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="6" max="6" width="32.75" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="F2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1461,7 +2201,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1478,7 +2218,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -1495,7 +2235,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -1512,7 +2252,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1526,7 +2266,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -1540,7 +2280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1554,7 +2294,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -1568,7 +2308,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1582,7 +2322,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1596,7 +2336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -1610,7 +2350,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -1624,7 +2364,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -1638,7 +2378,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1652,7 +2392,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -1666,7 +2406,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -1688,15 +2428,2007 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:AB47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M37" workbookViewId="0">
+      <selection activeCell="Z51" sqref="Z51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" customWidth="1"/>
+    <col min="26" max="26" width="13" customWidth="1"/>
+    <col min="27" max="27" width="19.5703125" customWidth="1"/>
+    <col min="28" max="28" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:28">
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+    </row>
+    <row r="4" spans="2:28">
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+    </row>
+    <row r="6" spans="2:28">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T6" s="11">
+        <v>1</v>
+      </c>
+      <c r="U6" s="6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="6">
+        <v>1</v>
+      </c>
+      <c r="W6" s="6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+    </row>
+    <row r="7" spans="2:28">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="R7" s="9"/>
+      <c r="S7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+    </row>
+    <row r="8" spans="2:28">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T8" s="11">
+        <v>2</v>
+      </c>
+      <c r="U8" s="6">
+        <v>2</v>
+      </c>
+      <c r="V8" s="6">
+        <v>2</v>
+      </c>
+      <c r="W8" s="6">
+        <v>2</v>
+      </c>
+      <c r="X8" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+    </row>
+    <row r="9" spans="2:28">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+    </row>
+    <row r="10" spans="2:28">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T10" s="11">
+        <v>3</v>
+      </c>
+      <c r="U10" s="6">
+        <v>3</v>
+      </c>
+      <c r="V10" s="6">
+        <v>3</v>
+      </c>
+      <c r="W10" s="6">
+        <v>3</v>
+      </c>
+      <c r="X10" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+    </row>
+    <row r="11" spans="2:28">
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="R11" s="9"/>
+      <c r="S11" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+    </row>
+    <row r="12" spans="2:28">
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T12" s="11">
+        <v>10</v>
+      </c>
+      <c r="U12" s="6">
+        <v>10</v>
+      </c>
+      <c r="V12" s="6">
+        <v>10</v>
+      </c>
+      <c r="W12" s="6">
+        <v>10</v>
+      </c>
+      <c r="X12" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+    </row>
+    <row r="13" spans="2:28">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="R13" s="9"/>
+      <c r="S13" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+    </row>
+    <row r="14" spans="2:28">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T14" s="6">
+        <v>4</v>
+      </c>
+      <c r="U14" s="6">
+        <v>4</v>
+      </c>
+      <c r="V14" s="6">
+        <v>4</v>
+      </c>
+      <c r="W14" s="6">
+        <v>4</v>
+      </c>
+      <c r="X14" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+    </row>
+    <row r="15" spans="2:28">
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="I15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="R15" s="9"/>
+      <c r="S15" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+    </row>
+    <row r="16" spans="2:28">
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T16" s="6">
+        <v>9</v>
+      </c>
+      <c r="U16" s="6">
+        <v>9</v>
+      </c>
+      <c r="V16" s="6">
+        <v>9</v>
+      </c>
+      <c r="W16" s="6">
+        <v>9</v>
+      </c>
+      <c r="X16" s="6">
+        <v>9</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+    </row>
+    <row r="17" spans="2:28">
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="I17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="R17" s="9"/>
+      <c r="S17" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+    </row>
+    <row r="18" spans="2:28">
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T18" s="6">
+        <v>11</v>
+      </c>
+      <c r="U18" s="6">
+        <v>11</v>
+      </c>
+      <c r="V18" s="6">
+        <v>11</v>
+      </c>
+      <c r="W18" s="6">
+        <v>11</v>
+      </c>
+      <c r="X18" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>11</v>
+      </c>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+    </row>
+    <row r="19" spans="2:28">
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="I19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="R19" s="9"/>
+      <c r="S19" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+    </row>
+    <row r="20" spans="2:28">
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T20" s="6">
+        <v>12</v>
+      </c>
+      <c r="U20" s="6">
+        <v>12</v>
+      </c>
+      <c r="V20" s="6">
+        <v>12</v>
+      </c>
+      <c r="W20" s="6">
+        <v>12</v>
+      </c>
+      <c r="X20" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>12</v>
+      </c>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+    </row>
+    <row r="21" spans="2:28">
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="I21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="R21" s="9"/>
+      <c r="S21" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+    </row>
+    <row r="22" spans="2:28">
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="I22" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T22" s="7">
+        <v>5</v>
+      </c>
+      <c r="U22" s="12"/>
+      <c r="V22" s="7">
+        <v>5</v>
+      </c>
+      <c r="W22" s="6"/>
+      <c r="X22" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+    </row>
+    <row r="23" spans="2:28">
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="I23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="R23" s="9"/>
+      <c r="S23" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T23" s="9"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+    </row>
+    <row r="24" spans="2:28">
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="I24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T24" s="7">
+        <v>6</v>
+      </c>
+      <c r="U24" s="6"/>
+      <c r="V24" s="7">
+        <v>6</v>
+      </c>
+      <c r="W24" s="6"/>
+      <c r="X24" s="7">
+        <v>6</v>
+      </c>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+    </row>
+    <row r="25" spans="2:28">
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="I25" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="R25" s="9"/>
+      <c r="S25" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T25" s="9"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+    </row>
+    <row r="26" spans="2:28">
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="I26" t="s">
+        <v>96</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="U26" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="V26" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="W26" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="X26" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y26" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z26" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA26" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB26" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28">
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="I27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="R27" s="9"/>
+      <c r="S27" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+    </row>
+    <row r="28" spans="2:28">
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="I28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T28" s="6">
+        <v>8</v>
+      </c>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6">
+        <v>8</v>
+      </c>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6">
+        <v>8</v>
+      </c>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+    </row>
+    <row r="29" spans="2:28">
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="I29" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="R29" s="9"/>
+      <c r="S29" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+    </row>
+    <row r="30" spans="2:28">
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T30" s="6">
+        <v>13</v>
+      </c>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6">
+        <v>13</v>
+      </c>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+    </row>
+    <row r="31" spans="2:28">
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="I31" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="R31" s="9"/>
+      <c r="S31" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+    </row>
+    <row r="32" spans="2:28">
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I32" t="s">
+        <v>102</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T32" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="U32" s="6"/>
+      <c r="V32" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="W32" s="6"/>
+      <c r="X32" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB32" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28">
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="I33" t="s">
+        <v>103</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="R33" s="9"/>
+      <c r="S33" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+    </row>
+    <row r="34" spans="2:28">
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I34" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="S34" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="U34" s="6"/>
+      <c r="V34" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="W34" s="6"/>
+      <c r="X34" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB34" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28">
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="I35" t="s">
+        <v>105</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="R35" s="9"/>
+      <c r="S35" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+    </row>
+    <row r="36" spans="2:28">
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="R36" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="S36" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="U36" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="V36" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="W36" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="X36" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y36" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z36" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA36" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB36" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28">
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="I37" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="R37" s="9"/>
+      <c r="S37" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+    </row>
+    <row r="38" spans="2:28">
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="I38" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="S38" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T38" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="U38" s="6"/>
+      <c r="V38" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="W38" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="X38" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y38" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+    </row>
+    <row r="39" spans="2:28">
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="I39" t="s">
+        <v>109</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="R39" s="9"/>
+      <c r="S39" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+    </row>
+    <row r="40" spans="2:28">
+      <c r="P40" s="10"/>
+      <c r="Q40" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="R40" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="S40" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T40" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="U40" s="6"/>
+      <c r="V40" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="W40" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="X40" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y40" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+    </row>
+    <row r="41" spans="2:28">
+      <c r="P41" s="10"/>
+      <c r="Q41" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="R41" s="9"/>
+      <c r="S41" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+    </row>
+    <row r="42" spans="2:28">
+      <c r="P42" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="R42" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="S42" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T42" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="U42" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="V42" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="W42" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="X42" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y42" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z42" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA42" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB42" s="16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28">
+      <c r="P43" s="10"/>
+      <c r="Q43" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="R43" s="9"/>
+      <c r="S43" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+    </row>
+    <row r="44" spans="2:28">
+      <c r="P44" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R44" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="S44" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W44" s="7"/>
+      <c r="X44" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+    </row>
+    <row r="45" spans="2:28">
+      <c r="P45" s="10"/>
+      <c r="Q45" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R45" s="9"/>
+      <c r="S45" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+    </row>
+    <row r="46" spans="2:28">
+      <c r="P46" s="10"/>
+      <c r="Q46" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S46" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="W46" s="7"/>
+      <c r="X46" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+    </row>
+    <row r="47" spans="2:28">
+      <c r="P47" s="10"/>
+      <c r="Q47" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="R47" s="9"/>
+      <c r="S47" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="293">
+    <mergeCell ref="AB46:AB47"/>
+    <mergeCell ref="W46:W47"/>
+    <mergeCell ref="X46:X47"/>
+    <mergeCell ref="Y46:Y47"/>
+    <mergeCell ref="Z46:Z47"/>
+    <mergeCell ref="AA46:AA47"/>
+    <mergeCell ref="AB42:AB43"/>
+    <mergeCell ref="P44:P47"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="X44:X45"/>
+    <mergeCell ref="Y44:Y45"/>
+    <mergeCell ref="Z44:Z45"/>
+    <mergeCell ref="AA44:AA45"/>
+    <mergeCell ref="AB44:AB45"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="U46:U47"/>
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="W42:W43"/>
+    <mergeCell ref="X42:X43"/>
+    <mergeCell ref="Y42:Y43"/>
+    <mergeCell ref="Z42:Z43"/>
+    <mergeCell ref="AA42:AA43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="T42:T43"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="V42:V43"/>
+    <mergeCell ref="X40:X41"/>
+    <mergeCell ref="Y40:Y41"/>
+    <mergeCell ref="Z40:Z41"/>
+    <mergeCell ref="AA40:AA41"/>
+    <mergeCell ref="AB40:AB41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="U40:U41"/>
+    <mergeCell ref="V40:V41"/>
+    <mergeCell ref="W40:W41"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="Y38:Y39"/>
+    <mergeCell ref="Z38:Z39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="V38:V39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="X36:X37"/>
+    <mergeCell ref="Y36:Y37"/>
+    <mergeCell ref="Z36:Z37"/>
+    <mergeCell ref="AA36:AA37"/>
+    <mergeCell ref="AB36:AB37"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AB18:AB19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="P6:P41"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K36:K37"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>123</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1026" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>31</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>77</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1026" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>